--- a/biology/Médecine/1778_en_santé_et_médecine/1778_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1778_en_santé_et_médecine/1778_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1778_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1778_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1778 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1778_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1778_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>France
-Premier Avis au public de la Société royale de médecine : la Société fait connaître les mesures de protection prises pour assurer la sécurité du public, pour le garantir contre les tromperies des charlatans[1].
-Angélique Le Boursier du Goudray, sage-femme très renommée et pensionnaire de la cour de France, ouvre des cours d'obstétrique dans plusieurs villes de Flandre, notamment à Nieuport[2].
-Franz-Anton Mesmer, arrivé à Paris, officie d'abord à l'hôtel Bourret place Vendôme[3] puis à l'hôtel Bullion[4] à l'angle des rues Coq-Héron (actuel no 9) et Orléans-Saint-Honoré (actuelle rue du Louvre), près de Saint-Eustache, et encore à l'hôtel de Coigny, rue Coq-Héron. Sa clientèle s'accroissant, il s'établit ensuite à Créteil en mai 1778.</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Premier Avis au public de la Société royale de médecine : la Société fait connaître les mesures de protection prises pour assurer la sécurité du public, pour le garantir contre les tromperies des charlatans.
+Angélique Le Boursier du Goudray, sage-femme très renommée et pensionnaire de la cour de France, ouvre des cours d'obstétrique dans plusieurs villes de Flandre, notamment à Nieuport.
+Franz-Anton Mesmer, arrivé à Paris, officie d'abord à l'hôtel Bourret place Vendôme puis à l'hôtel Bullion à l'angle des rues Coq-Héron (actuel no 9) et Orléans-Saint-Honoré (actuelle rue du Louvre), près de Saint-Eustache, et encore à l'hôtel de Coigny, rue Coq-Héron. Sa clientèle s'accroissant, il s'établit ensuite à Créteil en mai 1778.</t>
         </is>
       </c>
     </row>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1778_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1778_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +561,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>30 avril : enregistrement au Conseil du Cap-Français du « brevet portant privilège exclusif [qui] autorise l'impression et la distribution dans toute la partie française de Saint-Domingue [...] [d'] une feuille périodique sous le nom de Gazette de Médecine et d'Hyppiatrique »[5].
-Paul-Joseph Barthez défenseur du vitalisme publie Nouveaux éléments de la science de l'homme, Montpellier, Jean Martel, ainé, 1778, 348 p. (lire en ligne)[6].
-Anselme Jourdain décrit l'ostéopériostite alvéolodentaire dans son ouvrage Traité des maladies et des opérations chirurgicales de la bouche, Paris, Valleyre (lire en ligne)[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30 avril : enregistrement au Conseil du Cap-Français du « brevet portant privilège exclusif [qui] autorise l'impression et la distribution dans toute la partie française de Saint-Domingue [...] [d'] une feuille périodique sous le nom de Gazette de Médecine et d'Hyppiatrique ».
+Paul-Joseph Barthez défenseur du vitalisme publie Nouveaux éléments de la science de l'homme, Montpellier, Jean Martel, ainé, 1778, 348 p. (lire en ligne).
+Anselme Jourdain décrit l'ostéopériostite alvéolodentaire dans son ouvrage Traité des maladies et des opérations chirurgicales de la bouche, Paris, Valleyre (lire en ligne).</t>
         </is>
       </c>
     </row>
@@ -558,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1778_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1778_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +595,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 février : Augustin Pyrame de Candolle (mort en 1841), médecin et botaniste suisse[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Augustin Pyrame de Candolle (mort en 1841), médecin et botaniste suisse.</t>
         </is>
       </c>
     </row>
@@ -588,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1778_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1778_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3 janvier : Paul-Jacques Malouin (né en 1701), médecin et chimiste français[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 janvier : Paul-Jacques Malouin (né en 1701), médecin et chimiste français.</t>
         </is>
       </c>
     </row>
